--- a/05. May/31-May-25.xlsx
+++ b/05. May/31-May-25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. Work\1. Daily\Production follow up\05. May\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE23928-62B5-4FD9-847C-007BDDAFE46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036F49C8-B7E7-4452-96B3-AA3FBA233CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,9 +129,6 @@
     <t>FFL2</t>
   </si>
   <si>
-    <t>JKL-U2</t>
-  </si>
-  <si>
     <t>GMT TOTAL:</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>JKL2</t>
   </si>
 </sst>
 </file>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="X1" sqref="A1:X23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +640,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">TODAY() - 1</f>
-        <v>45808</v>
+        <v>45809</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="76.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1229,7 +1229,7 @@
     </row>
     <row r="10" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B10" s="10">
         <v>109480</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="11" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="8">
         <v>554356</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="12" spans="1:24" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="10">
         <v>147350</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="10">
         <v>10515</v>
@@ -1580,27 +1580,27 @@
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="61.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -1631,7 +1631,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="14">
@@ -1653,7 +1653,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="14">
@@ -1675,7 +1675,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="14">
@@ -1697,7 +1697,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="14">
@@ -1719,7 +1719,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="14">
